--- a/administrative-documents/reconnaissance-sae/liste-membres.xlsx
+++ b/administrative-documents/reconnaissance-sae/liste-membres.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gagne\OneDrive\Documents\School\CFQ\Club-de-Finance-Quantitative-UdeM\admin\reconnaissance-sae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gagne\OneDrive\Documents\School\CFQ\Club-de-Finance-Quantitative-UdeM\administrative-documents\reconnaissance-sae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A337F76C-7805-49DD-8063-507858AE50FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B5BD39-7473-4A8B-A5A8-7FD2E6A1129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Members &amp; Roles" sheetId="1" r:id="rId1"/>
+    <sheet name="Consultants" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Nom</t>
   </si>
@@ -33,12 +34,6 @@
     <t>Prénom</t>
   </si>
   <si>
-    <t>Courriel</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>Gagné</t>
   </si>
   <si>
@@ -63,9 +58,6 @@
     <t>Adrian</t>
   </si>
   <si>
-    <t>Reda</t>
-  </si>
-  <si>
     <t>Rami</t>
   </si>
   <si>
@@ -103,16 +95,117 @@
   </si>
   <si>
     <t>Collin</t>
+  </si>
+  <si>
+    <t>Président</t>
+  </si>
+  <si>
+    <t>Vice Président</t>
+  </si>
+  <si>
+    <t>Trésorier</t>
+  </si>
+  <si>
+    <t>Déléguée aux communications</t>
+  </si>
+  <si>
+    <t>philippe.gagne.5@umontreal.ca</t>
+  </si>
+  <si>
+    <t>Discord*</t>
+  </si>
+  <si>
+    <t>Courriel UdeM</t>
+  </si>
+  <si>
+    <t>External role</t>
+  </si>
+  <si>
+    <t>Internal role</t>
+  </si>
+  <si>
+    <t>Senior Analyst</t>
+  </si>
+  <si>
+    <t>Junior Analyst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Secretaire</t>
+  </si>
+  <si>
+    <t>*only for internal use. SAE wont receive this column.</t>
+  </si>
+  <si>
+    <t>hopspreads</t>
+  </si>
+  <si>
+    <t>Maikarfi</t>
+  </si>
+  <si>
+    <t>fan.li</t>
+  </si>
+  <si>
+    <t>Fanna.souley.maikarfi@umontreal.ca</t>
+  </si>
+  <si>
+    <t>ramiuness</t>
+  </si>
+  <si>
+    <t>Rami.younes@umontreal.ca</t>
+  </si>
+  <si>
+    <t>arthurmaffre34</t>
+  </si>
+  <si>
+    <t>arthur.maffre@umontreal.ca</t>
+  </si>
+  <si>
+    <t>Bisaillon</t>
+  </si>
+  <si>
+    <t>cyberdoger</t>
+  </si>
+  <si>
+    <t>samy.bisaillon@etud.polymtl.ca</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>edouardmitchell</t>
+  </si>
+  <si>
+    <t>edouard.mitchell@umontreal.ca</t>
+  </si>
+  <si>
+    <t>yonahcodes</t>
+  </si>
+  <si>
+    <t>sorru12</t>
+  </si>
+  <si>
+    <t>guillaume.collin.2@umontreal.ca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,13 +228,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -158,14 +254,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29BF8377-6546-4E4A-8159-17558919AC04}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{29BF8377-6546-4E4A-8159-17558919AC04}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29BF8377-6546-4E4A-8159-17558919AC04}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0">
+  <autoFilter ref="A1:G12" xr:uid="{29BF8377-6546-4E4A-8159-17558919AC04}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{ED506F52-7395-4769-8BEA-0DA68F736A23}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{B7E7141B-BD73-4E4B-ADDC-D1A0F527E2C2}" name="Prénom"/>
-    <tableColumn id="3" xr3:uid="{9D8B4D6A-2BF9-4EDE-A9C9-5427313ED48C}" name="Courriel"/>
-    <tableColumn id="4" xr3:uid="{CEA411B1-2A1B-486C-946E-F66B1E2F17DF}" name="Département"/>
-    <tableColumn id="5" xr3:uid="{04BEB479-C6BC-444C-BD17-6D480CA55DE4}" name="Role"/>
+    <tableColumn id="3" xr3:uid="{9D8B4D6A-2BF9-4EDE-A9C9-5427313ED48C}" name="Discord*"/>
+    <tableColumn id="4" xr3:uid="{CEA411B1-2A1B-486C-946E-F66B1E2F17DF}" name="Courriel UdeM"/>
+    <tableColumn id="5" xr3:uid="{04BEB479-C6BC-444C-BD17-6D480CA55DE4}" name="Département"/>
+    <tableColumn id="6" xr3:uid="{40FDF57C-26BC-4564-8554-DDF2451D7238}" name="External role"/>
+    <tableColumn id="7" xr3:uid="{D259726C-55A1-4783-9B76-2ADE5483FFE1}" name="Internal role"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -434,22 +532,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,130 +557,266 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>22</v>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF97EC64-592B-4049-AB9A-3E430D51C910}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/administrative-documents/reconnaissance-sae/liste-membres.xlsx
+++ b/administrative-documents/reconnaissance-sae/liste-membres.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gagne\OneDrive\Documents\School\CFQ\Club-de-Finance-Quantitative-UdeM\administrative-documents\reconnaissance-sae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B5BD39-7473-4A8B-A5A8-7FD2E6A1129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F309DF2F-E5CA-42D3-A349-FD184CE607BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members &amp; Roles" sheetId="1" r:id="rId1"/>
-    <sheet name="Consultants" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Consultants" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Nom</t>
   </si>
@@ -97,18 +98,6 @@
     <t>Collin</t>
   </si>
   <si>
-    <t>Président</t>
-  </si>
-  <si>
-    <t>Vice Président</t>
-  </si>
-  <si>
-    <t>Trésorier</t>
-  </si>
-  <si>
-    <t>Déléguée aux communications</t>
-  </si>
-  <si>
     <t>philippe.gagne.5@umontreal.ca</t>
   </si>
   <si>
@@ -124,18 +113,6 @@
     <t>Internal role</t>
   </si>
   <si>
-    <t>Senior Analyst</t>
-  </si>
-  <si>
-    <t>Junior Analyst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Secretaire</t>
-  </si>
-  <si>
     <t>*only for internal use. SAE wont receive this column.</t>
   </si>
   <si>
@@ -188,13 +165,46 @@
   </si>
   <si>
     <t>guillaume.collin.2@umontreal.ca</t>
+  </si>
+  <si>
+    <t>Sinan</t>
+  </si>
+  <si>
+    <t>momosinan</t>
+  </si>
+  <si>
+    <t>el.hadj.mohamed.liebe.sinan@umontreal.ca</t>
+  </si>
+  <si>
+    <t>Briscaru</t>
+  </si>
+  <si>
+    <t>vortexcol</t>
+  </si>
+  <si>
+    <t>adrian.briscaru@umontreal.ca</t>
+  </si>
+  <si>
+    <t>Lahlou</t>
+  </si>
+  <si>
+    <t>yonah.lahlou@umontreal.ca</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,16 +220,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -227,20 +255,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF9BC2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF9BC2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <top style="medium">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -266,6 +445,18 @@
     <tableColumn id="7" xr3:uid="{D259726C-55A1-4783-9B76-2ADE5483FFE1}" name="Internal role"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4E9A7D5-B0DA-4C16-BBB8-73758A3FC360}" name="Table2" displayName="Table2" ref="B2:D13" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="B2:D13" xr:uid="{A4E9A7D5-B0DA-4C16-BBB8-73758A3FC360}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{21782C65-4532-4943-AA32-6F3D5FFE4E84}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BADB8A90-1E1C-410E-B0C5-AFA2CA6D8C9A}" name="Column2" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A7BF21BA-C3E2-4153-8850-5D01BF15542F}" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -535,7 +726,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,19 +748,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,70 +771,64 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
       <c r="E5" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,19 +839,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -677,65 +856,47 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -748,28 +909,22 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,24 +935,18 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -810,6 +959,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B88E02-AC57-42F5-9737-6C6695AFA339}">
+  <dimension ref="B2:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF97EC64-592B-4049-AB9A-3E430D51C910}">
   <dimension ref="A1"/>
   <sheetViews>
